--- a/app/data/static/params/butter.xlsx
+++ b/app/data/static/params/butter.xlsx
@@ -358,7 +358,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -422,7 +422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -447,7 +447,9 @@
       <c r="I2" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="K2" s="0" t="n">
         <v>0</v>
       </c>
@@ -467,7 +469,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -492,7 +494,9 @@
       <c r="I3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="5"/>
+      <c r="J3" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="K3" s="0" t="n">
         <v>0</v>
       </c>
@@ -512,7 +516,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -540,7 +544,9 @@
       <c r="I4" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="K4" s="0" t="n">
         <v>0</v>
       </c>
@@ -560,7 +566,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
@@ -585,7 +591,9 @@
       <c r="I5" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="K5" s="0" t="n">
         <v>0</v>
       </c>
@@ -605,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
@@ -630,7 +638,9 @@
       <c r="I6" s="0" t="n">
         <v>0.5</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="n">
+        <v>6</v>
+      </c>
       <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
@@ -650,7 +660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
@@ -673,7 +683,9 @@
       <c r="I7" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="5" t="n">
+        <v>3</v>
+      </c>
       <c r="K7" s="0" t="n">
         <v>0</v>
       </c>
@@ -693,7 +705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
@@ -715,6 +727,9 @@
       <c r="H8" s="7"/>
       <c r="I8" s="0" t="n">
         <v>2</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>3</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>0</v>

--- a/app/data/static/params/butter.xlsx
+++ b/app/data/static/params/butter.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t xml:space="preserve">Название SKU</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t xml:space="preserve">Н0000088626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Масло сладко-сливочное Традиционное "Unagrande", 82,5%, 2 кг, к/к</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Н0000098199</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -179,6 +185,18 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -241,7 +259,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,6 +294,18 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -355,10 +385,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7"/>
+      <selection pane="topLeft" activeCell="Q12" activeCellId="0" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -713,7 +743,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>16</v>
@@ -748,6 +778,50 @@
       </c>
       <c r="P8" s="6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/static/params/butter.xlsx
+++ b/app/data/static/params/butter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -876,7 +876,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Масло сладко-сливочное Традиционное, 82,5%, 2 кг, к/к</t>
+          <t>Масло сладко-сливочное Традиционное "Unagrande", 82,5%, 2 кг, к/к</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -898,7 +898,11 @@
           <t>Масло</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Unagrande</t>
+        </is>
+      </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
@@ -921,66 +925,6 @@
         <v>50</v>
       </c>
       <c r="P8" t="inlineStr">
-        <is>
-          <t>Н0000088626</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Масло сладко-сливочное Традиционное "Unagrande", 82,5%, 2 кг, к/к</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>82</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Да</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Масло</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Масло</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Unagrande</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>360</v>
-      </c>
-      <c r="M9" t="n">
-        <v>10</v>
-      </c>
-      <c r="N9" t="n">
-        <v>50</v>
-      </c>
-      <c r="O9" t="n">
-        <v>50</v>
-      </c>
-      <c r="P9" t="inlineStr">
         <is>
           <t>Н0000098199</t>
         </is>

--- a/app/data/static/params/butter.xlsx
+++ b/app/data/static/params/butter.xlsx
@@ -109,7 +109,7 @@
     <t xml:space="preserve">Н0000096293</t>
   </si>
   <si>
-    <t xml:space="preserve">Масло сладко-сливочное традиционное 84%, 2 кг, кор (3 вложения)</t>
+    <t xml:space="preserve">Масло сладко-сливочное Традиционное 84%, 2 кг, кор (3 вложения)</t>
   </si>
   <si>
     <t xml:space="preserve">Н0000093768</t>
@@ -176,12 +176,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,8 +275,8 @@
   </sheetPr>
   <dimension ref="A1:P1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P8" activeCellId="0" sqref="P8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
